--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642628.0903756866</v>
+        <v>642022.0027467894</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797159</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7749464.594923657</v>
+        <v>7749464.594923656</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1150488416429</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>31.40676779456432</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>28.8556017839858</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>35.20092700998642</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>344.993045319737</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>173.5276703207746</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,19 +1135,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>313.8549798215694</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>364.9095806224393</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430576</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>354.9648390533901</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>175.4475408461131</v>
+        <v>213.7984441674444</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022995</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2608,7 +2608,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>63.02341241304953</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>3.065195208556083</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022995</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>3.065195208555183</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.335719634343</v>
+        <v>866.5213804116894</v>
       </c>
       <c r="C2" t="n">
-        <v>1526.23365085817</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D2" t="n">
-        <v>1090.323866032615</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>656.54912119091</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>228.6816916001177</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748445</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199883</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.921413819598</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.635290119251</v>
+        <v>888.7805468561932</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>399.1575173855744</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>222.4504633473306</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2634.504334502149</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194209</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
         <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2471.176067606882</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2235.558048676956</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2234.742998128393</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2219.640938748108</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1811.354815047762</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>489.9592645846411</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>455.8571958084684</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>423.987815023317</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E8" t="n">
-        <v>394.2534742220162</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>370.426448671628</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4813,19 +4813,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291448</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4992,22 +4992,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2188.014873871655</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1749.872401055078</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.962616229523</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>880.1878713878177</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>452.3204417970255</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885367</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5053,40 +5053,40 @@
         <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397636</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231032</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189627</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942683</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4468.437738815722</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4209.215436132738</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3846.598486066565</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3441.743031477598</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3022.600568056909</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2614.314444356562</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5190,13 +5190,13 @@
         <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2408.082100998616</v>
+        <v>2447.237176554639</v>
       </c>
       <c r="C14" t="n">
-        <v>1969.93962818204</v>
+        <v>2009.094703738062</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.029843356484</v>
+        <v>1573.184918912507</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.255098514779</v>
+        <v>1139.410174070802</v>
       </c>
       <c r="F14" t="n">
-        <v>672.3876689239869</v>
+        <v>711.5427444800098</v>
       </c>
       <c r="G14" t="n">
-        <v>270.9898375472508</v>
+        <v>310.1449131032737</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885367</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K14" t="n">
-        <v>350.4865144725195</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L14" t="n">
-        <v>1425.546480725379</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M14" t="n">
-        <v>2582.594315935929</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N14" t="n">
-        <v>3708.325299372377</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>4688.504965942683</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.504965942683</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942683</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942683</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.2826632597</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193526</v>
+        <v>4105.820788749549</v>
       </c>
       <c r="W14" t="n">
-        <v>3661.81025860456</v>
+        <v>3700.965334160583</v>
       </c>
       <c r="X14" t="n">
-        <v>3242.667795183871</v>
+        <v>3281.822870739893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2834.381671483524</v>
+        <v>2873.536747039547</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885367</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885367</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885367</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5466,22 +5466,22 @@
         <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5703,22 +5703,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="20">
@@ -5761,28 +5761,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,10 +6235,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3184.458419759166</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3011.896708242391</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>2846.018715443914</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2676.260711694651</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2499.553657656407</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.382823542349</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.07037637391</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244341</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830632</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164045</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.277038478153</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6776,10 +6776,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,22 +7177,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885367</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885367</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L41" t="n">
-        <v>1168.830065571713</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.830065571713</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N41" t="n">
-        <v>2294.56104900816</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>3274.740715578466</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>4103.050590411862</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>4649.549376370457</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4604.85309212652</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455167</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291809</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438362</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765316</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381478</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647662</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463874</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624332</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848343</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942683</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391066</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721668</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721636</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783635</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516829</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755709</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.74085053493</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885367</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7642,58 +7642,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316575</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250402</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661435</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455167</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.980488291809</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438362</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765316</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381478</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647662</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463874</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624332</v>
+        <v>93.8062990346578</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590545</v>
+        <v>418.3646240008701</v>
       </c>
       <c r="K45" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>3375.887202590545</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848343</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942683</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391066</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721668</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721636</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783635</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.094065516829</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.226629755709</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.74085053493</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2940.5805621595</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C46" t="n">
-        <v>2768.018850642725</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D46" t="n">
-        <v>2602.140857844248</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E46" t="n">
-        <v>2432.382854094985</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F46" t="n">
-        <v>2255.675800056742</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G46" t="n">
-        <v>2090.084525082569</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="H46" t="n">
-        <v>2071.845356039884</v>
+        <v>116.2805477314569</v>
       </c>
       <c r="I46" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>2433.18349577571</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>2851.39337754367</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>3310.877244724583</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>3753.136047882228</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>4172.805297108009</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>4520.312191078351</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.504965942683</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.504965942683</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>4442.625519521139</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U46" t="n">
-        <v>4164.192518774244</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V46" t="n">
-        <v>3877.237010644675</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W46" t="n">
-        <v>3605.210606230967</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X46" t="n">
-        <v>3359.818851564379</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y46" t="n">
-        <v>3132.399180878488</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>17.17305800913113</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761413</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>597.4989238114804</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K14" t="n">
-        <v>259.3095102562281</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>39.34908037598598</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761413</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.41901400957869</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.7913121651028</v>
+        <v>72.44040884377151</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>193.6066672431037</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>411.8858435779272</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>65.48800580459427</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686786.8944124915</v>
+        <v>686786.8944124916</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686786.8944124917</v>
+        <v>686786.8944124916</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686786.8944124916</v>
+        <v>686786.8944124915</v>
       </c>
     </row>
     <row r="13">
@@ -26316,43 +26316,43 @@
         <v>335092.0749315051</v>
       </c>
       <c r="C2" t="n">
+        <v>335092.0749315053</v>
+      </c>
+      <c r="D2" t="n">
         <v>335092.0749315051</v>
       </c>
-      <c r="D2" t="n">
-        <v>335092.0749315052</v>
-      </c>
       <c r="E2" t="n">
-        <v>308794.6693678433</v>
+        <v>308794.6693678431</v>
       </c>
       <c r="F2" t="n">
         <v>308794.6693678432</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="I2" t="n">
         <v>329285.990085845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="L2" t="n">
         <v>329285.990085845</v>
       </c>
       <c r="M2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
         <v>308794.6693678432</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260785</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="C4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
         <v>88974.2012340363</v>
       </c>
       <c r="F4" t="n">
-        <v>88974.20123403629</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875291</v>
@@ -26438,7 +26438,7 @@
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26447,19 +26447,19 @@
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="M4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="N4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>88974.20123403629</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="P4" t="n">
-        <v>88974.20123403629</v>
+        <v>88974.2012340363</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26493,10 +26493,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-136709.6834807405</v>
       </c>
       <c r="C6" t="n">
-        <v>86990.01510330438</v>
+        <v>86990.01510330448</v>
       </c>
       <c r="D6" t="n">
-        <v>86990.01510330447</v>
+        <v>86990.01510330437</v>
       </c>
       <c r="E6" t="n">
-        <v>-2110.560920269636</v>
+        <v>-2215.750542524589</v>
       </c>
       <c r="F6" t="n">
-        <v>148555.1926514782</v>
+        <v>148450.0030292235</v>
       </c>
       <c r="G6" t="n">
-        <v>127599.4976586919</v>
+        <v>127576.2733193092</v>
       </c>
       <c r="H6" t="n">
-        <v>156689.3068312996</v>
+        <v>156666.0824919171</v>
       </c>
       <c r="I6" t="n">
-        <v>156689.3068312997</v>
+        <v>156666.082491917</v>
       </c>
       <c r="J6" t="n">
-        <v>-17962.04188640641</v>
+        <v>-17985.26622578912</v>
       </c>
       <c r="K6" t="n">
-        <v>156689.3068312996</v>
+        <v>156666.082491917</v>
       </c>
       <c r="L6" t="n">
-        <v>156689.3068312996</v>
+        <v>156666.082491917</v>
       </c>
       <c r="M6" t="n">
-        <v>30938.21849560912</v>
+        <v>30914.99415622622</v>
       </c>
       <c r="N6" t="n">
-        <v>156689.3068312997</v>
+        <v>156666.082491917</v>
       </c>
       <c r="O6" t="n">
-        <v>148555.1926514781</v>
+        <v>148450.0030292236</v>
       </c>
       <c r="P6" t="n">
-        <v>148555.1926514782</v>
+        <v>148450.0030292235</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>224.2688042213259</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>372.7964946687788</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>135.0797604404448</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>185.4631102447372</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>83.52887324139931</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>50.04145816404309</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142717</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="N5" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>17.17305800913113</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761413</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>597.4989238114804</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K14" t="n">
-        <v>259.3095102562281</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35965,13 +35965,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36603,13 +36603,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>39.34908037598598</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761413</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949910105</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
